--- a/src/main/resources/python/MultifacetedModeling/DataOutput/KNN/avg_classes.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/KNN/avg_classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,88 +465,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.0817068074070228</t>
+          <t>0.07832746865857546</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.0804612052394044</t>
+          <t>0.0664884343830016</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.915943729677446</t>
+          <t>0.9333336663968619</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.07868891648488757</t>
+          <t>0.07417426628525618</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.10155348044846856</t>
+          <t>0.10487035630879851</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.8660228594910234</t>
+          <t>0.835477690012562</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.0830663171644513</t>
+          <t>0.08011810392237505</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.0948313318077277</t>
+          <t>0.10222777679177256</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.8832382089169994</t>
+          <t>0.8443037382243022</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.07700170588437368</t>
+          <t>0.07171350752618472</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.08863081988561462</t>
+          <t>0.07388598409866032</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.8979156865059765</t>
+          <t>0.9173036423579046</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>25</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/KNN/avg_classes.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/KNN/avg_classes.xlsx
@@ -465,88 +465,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.07832746865857546</t>
+          <t>0.08082284807887678</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.0664884343830016</t>
+          <t>0.09895408526045475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9333336663968619</t>
+          <t>0.8542109778623171</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.07417426628525618</t>
+          <t>0.07847362411285015</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.10487035630879851</t>
+          <t>0.06567463247610851</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.835477690012562</t>
+          <t>0.9350449106701454</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>33</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.08011810392237505</t>
+          <t>0.07572079021727454</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.10222777679177256</t>
+          <t>0.10637088326080699</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.8443037382243022</t>
+          <t>0.8312248774841997</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.07171350752618472</t>
+          <t>0.07202479612891496</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.07388598409866032</t>
+          <t>0.07433266422814754</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9173036423579046</t>
+          <t>0.9163995307675178</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/KNN/avg_classes.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/KNN/avg_classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,88 +465,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.08082284807887678</t>
+          <t>0.07311598624970586</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.09895408526045475</t>
+          <t>0.10513997350109917</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.8542109778623171</t>
+          <t>0.7348110835085484</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>59</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.07847362411285015</t>
+          <t>0.07584202402845538</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.06567463247610851</t>
+          <t>0.08658055332783932</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.9350449106701454</t>
+          <t>0.8196553867906502</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>57</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.07572079021727454</t>
+          <t>0.06995353204383957</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.10637088326080699</t>
+          <t>0.07087181331858855</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.8312248774841997</t>
+          <t>0.878924994080472</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.07202479612891496</t>
+          <t>0.07042093528144985</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.07433266422814754</t>
+          <t>0.09164138358517701</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9163995307675178</t>
+          <t>0.798603135041483</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>62</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/KNN/avg_classes.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/KNN/avg_classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,88 +465,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.07832746865857546</t>
+          <t>0.08229965389473663</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.0664884343830016</t>
+          <t>0.07337398283918596</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9333336663968619</t>
+          <t>0.8903763058054965</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.07417426628525618</t>
+          <t>0.07786258094629768</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.10487035630879851</t>
+          <t>0.10540387200499259</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.835477690012562</t>
+          <t>0.7760529780571613</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.08011810392237505</t>
+          <t>0.07393359939225773</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.10222777679177256</t>
+          <t>0.08167492106933902</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.8443037382243022</t>
+          <t>0.8645701249625038</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.07171350752618472</t>
+          <t>0.07832420565045915</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.07388598409866032</t>
+          <t>0.059610114802433604</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9173036423579046</t>
+          <t>0.9282112030979741</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>34</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/KNN/avg_classes.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/KNN/avg_classes.xlsx
@@ -465,88 +465,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.08229965389473663</t>
+          <t>0.08068671046642907</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.07337398283918596</t>
+          <t>0.06397362376896391</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.8903763058054965</t>
+          <t>0.9165620823316172</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>46</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.07786258094629768</t>
+          <t>0.08075562786967933</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.10540387200499259</t>
+          <t>0.09883650327312365</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.7760529780571613</t>
+          <t>0.8022355450520311</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.07393359939225773</t>
+          <t>0.07476686700051262</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.08167492106933902</t>
+          <t>0.07223751931121593</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.8645701249625038</t>
+          <t>0.8932538545160269</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.07832420565045915</t>
+          <t>0.07329501311509141</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.059610114802433604</t>
+          <t>0.10628368194805869</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9282112030979741</t>
+          <t>0.772906270111729</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
     </row>
